--- a/Benchmark/Graphs.xlsx
+++ b/Benchmark/Graphs.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Speedup OpenMP_Recursive" sheetId="2" r:id="rId2"/>
+    <sheet name="Speedup OpenMP_Iterative" sheetId="3" r:id="rId3"/>
+    <sheet name="Speedup Cilk_Iterative" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>Exponent</t>
   </si>
@@ -45,6 +48,33 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>2 cores</t>
+  </si>
+  <si>
+    <t>3 cores</t>
+  </si>
+  <si>
+    <t>6 cores</t>
+  </si>
+  <si>
+    <t>12 cores</t>
+  </si>
+  <si>
+    <t>24 cores</t>
+  </si>
+  <si>
+    <t>48 cores</t>
+  </si>
+  <si>
+    <t>Speedup:</t>
   </si>
 </sst>
 </file>
@@ -114,7 +144,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1085,7 +1114,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1163,7 +1191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2284,7 +2311,2641 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1087269585253456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1493681716467026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0484026838225142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0376950674404015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83057123806675137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86731439859421866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8650970246944556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82395057234292668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0240761701017695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91501752760099697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82973678265399453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEBC-4F14-8F7F-3BD5F747EF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2582121261644059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0944442703600414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98969125907390754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0014331662094409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1124309617057857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0346433266507404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0966910867352744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.153761760373504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5110324322086659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1236005291316973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.058415221424204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEBC-4F14-8F7F-3BD5F747EF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5888969146630894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5884573403674731</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.549321636233806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.699521584870523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9710560172724854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8261215408638889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5782940864657913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1642905357566367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2532760938915031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8383607825860266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5380429559122946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FEBC-4F14-8F7F-3BD5F747EF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2446064139941693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3044998680390605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1305128492873977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.591754293618636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6426121437422552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7802691584942676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8091659585425517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6956598704779915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9687903390716777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1086355850461009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0723177212984862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FEBC-4F14-8F7F-3BD5F747EF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>24 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.5779340364975725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8734677087618263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0436873747494988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0952224371373305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4027168751806434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2251507660545471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1562897174328484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7938637665632795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3638364610996438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6432700108113663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2614461947963491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FEBC-4F14-8F7F-3BD5F747EF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>48 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$H$15:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1785512167515564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.694776637605123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2057072903035162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4200121083067163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3563233402989869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3298237798661861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.562510580062777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1489319574849066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4718388947862344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0539785321980286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6812542029864614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FEBC-4F14-8F7F-3BD5F747EF98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="481764752"/>
+        <c:axId val="481765080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="481764752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size log2</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481765080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481765080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481764752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0496966391710409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2407900813528012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1064325781306914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88195867699741726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1419089252095243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1395348411250559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2467277014233824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.631454536167493</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3978829687218719</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2675561066073191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1664389999712488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6C5-4C40-AA1A-C0AA562B2BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.66843201944782082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5577806520672584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3577686393706418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5305313988708407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3864359177729524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92644035717715978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.466706211219539</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9872318057020153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.04144461191899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8011318985409759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6799136585563059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6C5-4C40-AA1A-C0AA562B2BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8203097292824211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9748388555919936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0168915329862958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1187343013539612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3875068851401884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8029726210696571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9982564626859931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4571199143716571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7246884700724086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9145439782416802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7411413726969549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6C5-4C40-AA1A-C0AA562B2BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.9441919191919192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1750529331174491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2524767159043719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4366224738756159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0011427091776999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9469413662189656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6400034166543214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6778531555061518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5741263866145623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0923445763659689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1093915472151803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6C5-4C40-AA1A-C0AA562B2BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>24 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.745607074027888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71687773239465524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9620204107996382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.901109893121403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8543657613380233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9284891155066539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1607535690639423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.400612612977163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7282194903336743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5771414823652252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5197358407724071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F6C5-4C40-AA1A-C0AA562B2BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>48 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Iterative'!$H$15:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17224098973131391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30482632222028277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55727599618404633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3515067951001232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9333171361434249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0577119195940385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5186654826085952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5265619072900964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9964050876135166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7569815633576047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8415540616941595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F6C5-4C40-AA1A-C0AA562B2BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="342499528"/>
+        <c:axId val="342501496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="342499528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Size log2</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342501496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342501496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342499528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2972198820556025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3883610923401042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2673776264623908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3352273802241323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2369971299370535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4650236480241507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4576616049649287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4207273966663061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.238023619583402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1385216129310618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1613421132920059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A9A-42DC-A362-21B39239E93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5063588338876932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5083999136255668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4468895875011909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5516412485067901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3069346492227967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6941262646822961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2970625554046393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9376758574220032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6735851366658487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5017784173996549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5320069739526476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A9A-42DC-A362-21B39239E93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0252531895304484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.941467481934408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.97380048864168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1069900284616763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0073759196367389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.21145780014787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1246529476468994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6300550330483325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7978459281271055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2217353433976377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1122629867414604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A9A-42DC-A362-21B39239E93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0921195652173914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1749174917491749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.325738086487811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96046071702375713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0289801572501771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4577451296039885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0905217280661277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6745025979416859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7722898859025928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4958197848203585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5484413690075116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A9A-42DC-A362-21B39239E93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>24 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup Cilk_Iterative'!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6463166898321395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0906859810846403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4454176595607651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3273753173881697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2935887563400459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0337118686175288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7685365177749377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.161676791092761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7284077370046251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2046954642613863</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7113102953442616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A9A-42DC-A362-21B39239E93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="399320928"/>
+        <c:axId val="399315024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="399320928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Size log2</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399315024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399315024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399320928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2431,6 +5092,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -3417,6 +6198,1515 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3506,6 +7796,111 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3779,7 +8174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
@@ -5281,4 +9676,1949 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>15398</v>
+      </c>
+      <c r="C2">
+        <v>13888</v>
+      </c>
+      <c r="D2">
+        <v>12238</v>
+      </c>
+      <c r="E2">
+        <v>9691</v>
+      </c>
+      <c r="F2">
+        <v>6860</v>
+      </c>
+      <c r="G2">
+        <v>5973</v>
+      </c>
+      <c r="H2">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>34927</v>
+      </c>
+      <c r="C3">
+        <v>30388</v>
+      </c>
+      <c r="D3">
+        <v>31913</v>
+      </c>
+      <c r="E3">
+        <v>21988</v>
+      </c>
+      <c r="F3">
+        <v>15156</v>
+      </c>
+      <c r="G3">
+        <v>12155</v>
+      </c>
+      <c r="H3">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>75940</v>
+      </c>
+      <c r="C4">
+        <v>72434</v>
+      </c>
+      <c r="D4">
+        <v>76731</v>
+      </c>
+      <c r="E4">
+        <v>49015</v>
+      </c>
+      <c r="F4">
+        <v>35644</v>
+      </c>
+      <c r="G4">
+        <v>24950</v>
+      </c>
+      <c r="H4">
+        <v>23689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>211723</v>
+      </c>
+      <c r="C5">
+        <v>204032</v>
+      </c>
+      <c r="D5">
+        <v>211420</v>
+      </c>
+      <c r="E5">
+        <v>124578</v>
+      </c>
+      <c r="F5">
+        <v>81691</v>
+      </c>
+      <c r="G5">
+        <v>51700</v>
+      </c>
+      <c r="H5">
+        <v>47901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>533147</v>
+      </c>
+      <c r="C6">
+        <v>641904</v>
+      </c>
+      <c r="D6">
+        <v>479263</v>
+      </c>
+      <c r="E6">
+        <v>270488</v>
+      </c>
+      <c r="F6">
+        <v>201750</v>
+      </c>
+      <c r="G6">
+        <v>121095</v>
+      </c>
+      <c r="H6">
+        <v>99536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1244290</v>
+      </c>
+      <c r="C7">
+        <v>1434647</v>
+      </c>
+      <c r="D7">
+        <v>1202627</v>
+      </c>
+      <c r="E7">
+        <v>681384</v>
+      </c>
+      <c r="F7">
+        <v>447543</v>
+      </c>
+      <c r="G7">
+        <v>294496</v>
+      </c>
+      <c r="H7">
+        <v>233458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2727349</v>
+      </c>
+      <c r="C8">
+        <v>3152651</v>
+      </c>
+      <c r="D8">
+        <v>2486889</v>
+      </c>
+      <c r="E8">
+        <v>1728036</v>
+      </c>
+      <c r="F8">
+        <v>970875</v>
+      </c>
+      <c r="G8">
+        <v>656198</v>
+      </c>
+      <c r="H8">
+        <v>490309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>7473951</v>
+      </c>
+      <c r="C9">
+        <v>9070873</v>
+      </c>
+      <c r="D9">
+        <v>6477898</v>
+      </c>
+      <c r="E9">
+        <v>3453303</v>
+      </c>
+      <c r="F9">
+        <v>2022359</v>
+      </c>
+      <c r="G9">
+        <v>1289977</v>
+      </c>
+      <c r="H9">
+        <v>1045464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>16827040</v>
+      </c>
+      <c r="C10">
+        <v>16431434</v>
+      </c>
+      <c r="D10">
+        <v>11136121</v>
+      </c>
+      <c r="E10">
+        <v>7467811</v>
+      </c>
+      <c r="F10">
+        <v>4239841</v>
+      </c>
+      <c r="G10">
+        <v>2644166</v>
+      </c>
+      <c r="H10">
+        <v>2600040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>29659918</v>
+      </c>
+      <c r="C11">
+        <v>32414590</v>
+      </c>
+      <c r="D11">
+        <v>26397209</v>
+      </c>
+      <c r="E11">
+        <v>16133894</v>
+      </c>
+      <c r="F11">
+        <v>9541137</v>
+      </c>
+      <c r="G11">
+        <v>6387722</v>
+      </c>
+      <c r="H11">
+        <v>4899244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>63370249</v>
+      </c>
+      <c r="C12">
+        <v>76373918</v>
+      </c>
+      <c r="D12">
+        <v>59872768</v>
+      </c>
+      <c r="E12">
+        <v>41201872</v>
+      </c>
+      <c r="F12">
+        <v>20626203</v>
+      </c>
+      <c r="G12">
+        <v>14870597</v>
+      </c>
+      <c r="H12">
+        <v>11154271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>$B2/C2</f>
+        <v>1.1087269585253456</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:H15" si="0">$B2/D2</f>
+        <v>1.2582121261644059</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.5888969146630894</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.2446064139941693</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.5779340364975725</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.1785512167515564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:H25" si="1">$B3/C3</f>
+        <v>1.1493681716467026</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.0944442703600414</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.5884573403674731</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.3044998680390605</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.8734677087618263</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.694776637605123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.0484026838225142</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.98969125907390754</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.549321636233806</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.1305128492873977</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3.0436873747494988</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3.2057072903035162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.0376950674404015</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.0014331662094409</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.699521584870523</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.591754293618636</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.0952224371373305</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.4200121083067163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.83057123806675137</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.1124309617057857</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.9710560172724854</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.6426121437422552</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4.4027168751806434</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>5.3563233402989869</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.86731439859421866</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.0346433266507404</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.8261215408638889</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.7802691584942676</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>4.2251507660545471</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>5.3298237798661861</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.8650970246944556</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.0966910867352744</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.5782940864657913</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.8091659585425517</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>4.1562897174328484</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5.562510580062777</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.82395057234292668</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.153761760373504</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.1642905357566367</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.6956598704779915</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5.7938637665632795</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>7.1489319574849066</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.0240761701017695</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.5110324322086659</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.2532760938915031</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3.9687903390716777</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>6.3638364610996438</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>6.4718388947862344</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.91501752760099697</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.1236005291316973</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.8383607825860266</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3.1086355850461009</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>4.6432700108113663</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>6.0539785321980286</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.82973678265399453</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.058415221424204</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.5380429559122946</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3.0723177212984862</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>4.2614461947963491</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>5.6812542029864614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>15398</v>
+      </c>
+      <c r="C2">
+        <v>14669</v>
+      </c>
+      <c r="D2">
+        <v>23036</v>
+      </c>
+      <c r="E2">
+        <v>8459</v>
+      </c>
+      <c r="F2">
+        <v>7920</v>
+      </c>
+      <c r="G2">
+        <v>8821</v>
+      </c>
+      <c r="H2">
+        <v>89398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>34927</v>
+      </c>
+      <c r="C3">
+        <v>28149</v>
+      </c>
+      <c r="D3">
+        <v>22421</v>
+      </c>
+      <c r="E3">
+        <v>17686</v>
+      </c>
+      <c r="F3">
+        <v>16058</v>
+      </c>
+      <c r="G3">
+        <v>48721</v>
+      </c>
+      <c r="H3">
+        <v>114580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>75940</v>
+      </c>
+      <c r="C4">
+        <v>68635</v>
+      </c>
+      <c r="D4">
+        <v>55930</v>
+      </c>
+      <c r="E4">
+        <v>37652</v>
+      </c>
+      <c r="F4">
+        <v>33714</v>
+      </c>
+      <c r="G4">
+        <v>38705</v>
+      </c>
+      <c r="H4">
+        <v>136270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>211723</v>
+      </c>
+      <c r="C5">
+        <v>240060</v>
+      </c>
+      <c r="D5">
+        <v>138333</v>
+      </c>
+      <c r="E5">
+        <v>99929</v>
+      </c>
+      <c r="F5">
+        <v>86892</v>
+      </c>
+      <c r="G5">
+        <v>72980</v>
+      </c>
+      <c r="H5">
+        <v>156657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>533147</v>
+      </c>
+      <c r="C6">
+        <v>466891</v>
+      </c>
+      <c r="D6">
+        <v>384545</v>
+      </c>
+      <c r="E6">
+        <v>223307</v>
+      </c>
+      <c r="F6">
+        <v>177648</v>
+      </c>
+      <c r="G6">
+        <v>186783</v>
+      </c>
+      <c r="H6">
+        <v>275768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1244290</v>
+      </c>
+      <c r="C7">
+        <v>1091928</v>
+      </c>
+      <c r="D7">
+        <v>1343087</v>
+      </c>
+      <c r="E7">
+        <v>443918</v>
+      </c>
+      <c r="F7">
+        <v>422231</v>
+      </c>
+      <c r="G7">
+        <v>316735</v>
+      </c>
+      <c r="H7">
+        <v>406935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2727349</v>
+      </c>
+      <c r="C8">
+        <v>2187606</v>
+      </c>
+      <c r="D8">
+        <v>1859506</v>
+      </c>
+      <c r="E8">
+        <v>909645</v>
+      </c>
+      <c r="F8">
+        <v>749271</v>
+      </c>
+      <c r="G8">
+        <v>655494</v>
+      </c>
+      <c r="H8">
+        <v>603574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>7473951</v>
+      </c>
+      <c r="C9">
+        <v>4581158</v>
+      </c>
+      <c r="D9">
+        <v>3760986</v>
+      </c>
+      <c r="E9">
+        <v>2161901</v>
+      </c>
+      <c r="F9">
+        <v>1597731</v>
+      </c>
+      <c r="G9">
+        <v>1383908</v>
+      </c>
+      <c r="H9">
+        <v>1352369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>16827040</v>
+      </c>
+      <c r="C10">
+        <v>12037517</v>
+      </c>
+      <c r="D10">
+        <v>8242712</v>
+      </c>
+      <c r="E10">
+        <v>4517704</v>
+      </c>
+      <c r="F10">
+        <v>3678744</v>
+      </c>
+      <c r="G10">
+        <v>2937569</v>
+      </c>
+      <c r="H10">
+        <v>2806188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>29659918</v>
+      </c>
+      <c r="C11">
+        <v>23399294</v>
+      </c>
+      <c r="D11">
+        <v>16467377</v>
+      </c>
+      <c r="E11">
+        <v>10176521</v>
+      </c>
+      <c r="F11">
+        <v>7247659</v>
+      </c>
+      <c r="G11">
+        <v>6480009</v>
+      </c>
+      <c r="H11">
+        <v>6235029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>63370249</v>
+      </c>
+      <c r="C12">
+        <v>54327958</v>
+      </c>
+      <c r="D12">
+        <v>37722325</v>
+      </c>
+      <c r="E12">
+        <v>23118198</v>
+      </c>
+      <c r="F12">
+        <v>15420835</v>
+      </c>
+      <c r="G12">
+        <v>14020786</v>
+      </c>
+      <c r="H12">
+        <v>13088824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>$B2/C2</f>
+        <v>1.0496966391710409</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:H15" si="0">$B2/D2</f>
+        <v>0.66843201944782082</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.8203097292824211</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.9441919191919192</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.745607074027888</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.17224098973131391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:H25" si="1">$B3/C3</f>
+        <v>1.2407900813528012</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.5577806520672584</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.9748388555919936</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.1750529331174491</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.71687773239465524</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.30482632222028277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.1064325781306914</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.3577686393706418</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.0168915329862958</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.2524767159043719</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.9620204107996382</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.55727599618404633</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.88195867699741726</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.5305313988708407</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.1187343013539612</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.4366224738756159</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.901109893121403</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.3515067951001232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1.1419089252095243</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.3864359177729524</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.3875068851401884</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.0011427091776999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.8543657613380233</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.9333171361434249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.1395348411250559</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.92644035717715978</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.8029726210696571</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.9469413662189656</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>3.9284891155066539</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.0577119195940385</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1.2467277014233824</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.466706211219539</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.9982564626859931</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.6400034166543214</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>4.1607535690639423</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>4.5186654826085952</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.631454536167493</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.9872318057020153</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>3.4571199143716571</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4.6778531555061518</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5.400612612977163</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>5.5265619072900964</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.3978829687218719</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2.04144461191899</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>3.7246884700724086</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4.5741263866145623</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5.7282194903336743</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>5.9964050876135166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.2675561066073191</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.8011318985409759</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.9145439782416802</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4.0923445763659689</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>4.5771414823652252</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>4.7569815633576047</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.1664389999712488</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.6799136585563059</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.7411413726969549</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4.1093915472151803</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>4.5197358407724071</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4.8415540616941595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>15398</v>
+      </c>
+      <c r="C2">
+        <v>11870</v>
+      </c>
+      <c r="D2">
+        <v>10222</v>
+      </c>
+      <c r="E2">
+        <v>7603</v>
+      </c>
+      <c r="F2">
+        <v>7360</v>
+      </c>
+      <c r="G2">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>34927</v>
+      </c>
+      <c r="C3">
+        <v>25157</v>
+      </c>
+      <c r="D3">
+        <v>23155</v>
+      </c>
+      <c r="E3">
+        <v>17990</v>
+      </c>
+      <c r="F3">
+        <v>16059</v>
+      </c>
+      <c r="G3">
+        <v>16706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>75940</v>
+      </c>
+      <c r="C4">
+        <v>59919</v>
+      </c>
+      <c r="D4">
+        <v>52485</v>
+      </c>
+      <c r="E4">
+        <v>38474</v>
+      </c>
+      <c r="F4">
+        <v>32652</v>
+      </c>
+      <c r="G4">
+        <v>31054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>211723</v>
+      </c>
+      <c r="C5">
+        <v>158567</v>
+      </c>
+      <c r="D5">
+        <v>136451</v>
+      </c>
+      <c r="E5">
+        <v>100486</v>
+      </c>
+      <c r="F5">
+        <v>220439</v>
+      </c>
+      <c r="G5">
+        <v>159505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>533147</v>
+      </c>
+      <c r="C6">
+        <v>431001</v>
+      </c>
+      <c r="D6">
+        <v>407937</v>
+      </c>
+      <c r="E6">
+        <v>265594</v>
+      </c>
+      <c r="F6">
+        <v>262766</v>
+      </c>
+      <c r="G6">
+        <v>232451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1244290</v>
+      </c>
+      <c r="C7">
+        <v>849331</v>
+      </c>
+      <c r="D7">
+        <v>734473</v>
+      </c>
+      <c r="E7">
+        <v>562656</v>
+      </c>
+      <c r="F7">
+        <v>506273</v>
+      </c>
+      <c r="G7">
+        <v>611832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2727349</v>
+      </c>
+      <c r="C8">
+        <v>1871044</v>
+      </c>
+      <c r="D8">
+        <v>2102712</v>
+      </c>
+      <c r="E8">
+        <v>1283668</v>
+      </c>
+      <c r="F8">
+        <v>1304626</v>
+      </c>
+      <c r="G8">
+        <v>985123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>7473951</v>
+      </c>
+      <c r="C9">
+        <v>5260651</v>
+      </c>
+      <c r="D9">
+        <v>3857173</v>
+      </c>
+      <c r="E9">
+        <v>2841747</v>
+      </c>
+      <c r="F9">
+        <v>2794520</v>
+      </c>
+      <c r="G9">
+        <v>2363920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>16827040</v>
+      </c>
+      <c r="C10">
+        <v>13591857</v>
+      </c>
+      <c r="D10">
+        <v>10054487</v>
+      </c>
+      <c r="E10">
+        <v>6014284</v>
+      </c>
+      <c r="F10">
+        <v>6069726</v>
+      </c>
+      <c r="G10">
+        <v>6167348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>29659918</v>
+      </c>
+      <c r="C11">
+        <v>26051256</v>
+      </c>
+      <c r="D11">
+        <v>19749863</v>
+      </c>
+      <c r="E11">
+        <v>13349888</v>
+      </c>
+      <c r="F11">
+        <v>11883838</v>
+      </c>
+      <c r="G11">
+        <v>13453068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>63370249</v>
+      </c>
+      <c r="C12">
+        <v>54566392</v>
+      </c>
+      <c r="D12">
+        <v>41364204</v>
+      </c>
+      <c r="E12">
+        <v>30001117</v>
+      </c>
+      <c r="F12">
+        <v>24866277</v>
+      </c>
+      <c r="G12">
+        <v>23372555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>$B2/C2</f>
+        <v>1.2972198820556025</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:H15" si="0">$B2/D2</f>
+        <v>1.5063588338876932</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.0252531895304484</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.0921195652173914</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.6463166898321395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:H25" si="1">$B3/C3</f>
+        <v>1.3883610923401042</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.5083999136255668</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.941467481934408</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.1749174917491749</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.0906859810846403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.2673776264623908</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.4468895875011909</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.97380048864168</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.325738086487811</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.4454176595607651</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.3352273802241323</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.5516412485067901</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.1069900284616763</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.96046071702375713</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.3273753173881697</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1.2369971299370535</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.3069346492227967</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.0073759196367389</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.0289801572501771</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.2935887563400459</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.4650236480241507</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.6941262646822961</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.21145780014787</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.4577451296039885</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.0337118686175288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1.4576616049649287</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.2970625554046393</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.1246529476468994</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.0905217280661277</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.7685365177749377</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.4207273966663061</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.9376758574220032</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.6300550330483325</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.6745025979416859</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>3.161676791092761</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.238023619583402</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.6735851366658487</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.7978459281271055</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.7722898859025928</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2.7284077370046251</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.1385216129310618</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.5017784173996549</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.2217353433976377</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2.4958197848203585</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2.2046954642613863</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.1613421132920059</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.5320069739526476</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.1122629867414604</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2.5484413690075116</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2.7113102953442616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Benchmark/Graphs.xlsx
+++ b/Benchmark/Graphs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="21">
   <si>
     <t>Exponent</t>
   </si>
@@ -854,6 +854,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -892,72 +922,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speedup MPI'!$C$15:$C$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$C$43:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0619280949288625</c:v>
+                  <c:v>1.2154076880574631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0339073840962048</c:v>
+                  <c:v>1.3150225903614459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5552203140274443</c:v>
+                  <c:v>1.2193907863256097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0486349401525485</c:v>
+                  <c:v>1.2268249718967654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0130331312680285</c:v>
+                  <c:v>0.89291791439730428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9616205933017108</c:v>
+                  <c:v>1.3675319822394161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4067494404125958</c:v>
+                  <c:v>0.79687234756836023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4771660945707836</c:v>
+                  <c:v>1.1341968197968872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9814030844371981</c:v>
+                  <c:v>1.3641977855896725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.039308100619599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0361584862027626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +1007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DE0-4F14-BB86-102F6FE2A670}"/>
+              <c16:uniqueId val="{00000000-4F3A-4625-B2D2-45D82A2A4253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -973,7 +1015,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>4 cores</c:v>
+            <c:v>3 cores</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1001,72 +1043,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speedup MPI'!$D$15:$D$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$D$43:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.8493228911731112</c:v>
+                  <c:v>1.6452612458596003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8431299138899289</c:v>
+                  <c:v>1.5801212450235251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6436118950918979</c:v>
+                  <c:v>1.5831057558006212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9895143518804077</c:v>
+                  <c:v>1.5429119025236295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0332852281259446</c:v>
+                  <c:v>1.5208654847313545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0381620970104612</c:v>
+                  <c:v>1.3381016290063792</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8345258373009359</c:v>
+                  <c:v>1.2966309025526146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0865371421799237</c:v>
+                  <c:v>1.8428695595355071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2918332565310773</c:v>
+                  <c:v>1.7014376795709156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3042268896710265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6888648516864277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1128,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3DE0-4F14-BB86-102F6FE2A670}"/>
+              <c16:uniqueId val="{00000001-4F3A-4625-B2D2-45D82A2A4253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1082,7 +1136,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>8 cores</c:v>
+            <c:v>6 cores</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1110,72 +1164,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speedup MPI'!$E$15:$E$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$E$43:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.4025328787140769</c:v>
+                  <c:v>2.0497870074547393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4854048099871489</c:v>
+                  <c:v>2.255100723140496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4998618520329003</c:v>
+                  <c:v>2.2902466976295313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9910992334411306</c:v>
+                  <c:v>2.2941055368945715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1256710113164257</c:v>
+                  <c:v>2.2376501498350554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1851367629569953</c:v>
+                  <c:v>2.7843379452168211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.368292104809516</c:v>
+                  <c:v>2.4824706478810676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7515619621916105</c:v>
+                  <c:v>3.140983335112423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8718192237984592</c:v>
+                  <c:v>3.3908645767232923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5878337276460628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4080531257675948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3DE0-4F14-BB86-102F6FE2A670}"/>
+              <c16:uniqueId val="{00000002-4F3A-4625-B2D2-45D82A2A4253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1191,7 +1257,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>16 cores</c:v>
+            <c:v>12 cores</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1219,72 +1285,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speedup MPI'!$F$15:$F$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$F$43:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.7331124412141943</c:v>
+                  <c:v>2.9157356561257339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8431174089068825</c:v>
+                  <c:v>2.9042907034758025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1238595387333321</c:v>
+                  <c:v>2.9165066441354943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0075797422699777</c:v>
+                  <c:v>3.4473028640278751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3717934327430346</c:v>
+                  <c:v>3.2552631578947366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4667467097482856</c:v>
+                  <c:v>3.4854159255348054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.089595660843055</c:v>
+                  <c:v>3.7585790613161199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9791740977737371</c:v>
+                  <c:v>5.1144994340756273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4978387944394473</c:v>
+                  <c:v>3.9725550383007033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0410238948651771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7184497933501799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3DE0-4F14-BB86-102F6FE2A670}"/>
+              <c16:uniqueId val="{00000003-4F3A-4625-B2D2-45D82A2A4253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1300,7 +1378,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>32 cores</c:v>
+            <c:v>24 cores</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1328,72 +1406,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speedup MPI'!$G$15:$G$23</c:f>
+              <c:f>'Speedup Cilk_Recursive'!$G$43:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.7291266282297673</c:v>
+                  <c:v>2.6187074829931971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7983294152953535</c:v>
+                  <c:v>3.60183561926369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1580627086023343</c:v>
+                  <c:v>3.590034510471328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5354513834812851</c:v>
+                  <c:v>4.0630013433122238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0414158088949312</c:v>
+                  <c:v>3.602904505429898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1766634885190363</c:v>
+                  <c:v>4.8885021254527885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.101712167281832</c:v>
+                  <c:v>3.9816534521496281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0222066794894209</c:v>
+                  <c:v>5.4389709114302098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.469830465105268</c:v>
+                  <c:v>5.253918495297806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9952732796030901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9089252373026584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,231 +1491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3DE0-4F14-BB86-102F6FE2A670}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>64 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup MPI'!$H$15:$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.8134475597092419</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3286621078777099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7649014865922186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.558331409615171</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3578456490567827</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.733410553843437</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1879081934419764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1221108460113811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0905485964901835</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3DE0-4F14-BB86-102F6FE2A670}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>128 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup MPI'!$B$15:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup MPI'!$I$15:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.88847905166492835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.435647307924985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4046861867660088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0500051486825095</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6723027113811901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6210041561689374</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1169687659339731</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9896918179220142</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1686468250026572</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3DE0-4F14-BB86-102F6FE2A670}"/>
+              <c16:uniqueId val="{00000004-4F3A-4625-B2D2-45D82A2A4253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1639,11 +1505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407540496"/>
-        <c:axId val="407546400"/>
+        <c:axId val="437253472"/>
+        <c:axId val="437254784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="407540496"/>
+        <c:axId val="437253472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,11 +1536,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-AT"/>
-                  <a:t>Data Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-AT" baseline="0"/>
-                  <a:t> log2</a:t>
+                  <a:t>Data Size log2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1745,7 +1607,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407546400"/>
+        <c:crossAx val="437254784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1753,7 +1615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="407546400"/>
+        <c:axId val="437254784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,13 +1656,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-AT"/>
-                  <a:t>Relative</a:t>
+                  <a:t>Relative Speedup</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-AT" baseline="0"/>
-                  <a:t> Speedup</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-AT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1864,7 +1721,2370 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407540496"/>
+        <c:crossAx val="437253472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1997142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1593199381761981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1235424065322559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6753645530592132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1398377703659999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0539854372698265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.015667276388966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4065262560690805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5413341496835762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0368012408178018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5164507094913025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.0612326043737577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0713155117833275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9196462898885045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9115245344368903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0707871834303848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1002229946057729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1071233678866861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8895974703399334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1104480907848204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3885117708838752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8237122004696782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.6462230641723892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7188032367972741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9055749845710759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9821865587349397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1993966508609146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2809565914462748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4356442245609244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5848022739873837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0369592912518293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8992395751293696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7167524962888381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>16 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.9471930274288645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2151822350953418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3463827838827838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6088534491893611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3679722110350383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5951310322499417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7708481447626783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5188611576949116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0970586098229838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7340248101594602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1066150994851256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>32 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.9200610997963339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3173053152039556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4254079254079253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7698051505654719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9243163357149999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7812913807282547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8869492976311619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7364154511896057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7193428730186788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0990650005010725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9987722305227758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>64 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$H$15:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.0406793048973144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3969072164948453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5136260583907832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.604876245160729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9951965949028452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6870679880816501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6747288421456776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5148253781744074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0119035812419632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7012767707257774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5584445463285999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>128 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$I$15:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1400972897845727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2530641207586117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4955635885639174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3820484968531357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9089316088920172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3899280981647042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9617745665411612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.478833705970751</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7967867130674913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9308765995676573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90781516337034507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DB83-40D0-920A-4EA325E1043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="432946600"/>
+        <c:axId val="432944960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432946600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Size log2</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432944960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432944960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432946600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$C$43:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2518280198888565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1858063708617559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1521893155731897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6987928770825103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1738033107722416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0975716657816439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0652722751284287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4535881746385826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5688992185386543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.060783555707733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9870611377772671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$D$43:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.1113356233582543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1307816421656507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1463374212794166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9432141992438492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1254404014468031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1424321402955826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1510921117240982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9631652291216604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.157448503302331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4247512747303577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3202893507887894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$E$43:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.7565259819468162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8708855147955226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.950887050621716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0013700895282636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.249029687188683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3925471188570739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5172060837836989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6983158827301166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1010199161007517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9564567552965801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9329722477225086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>16 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$F$43:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0660153155532086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3560738338737837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5086979754200556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6345273578880137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4014183678638368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7674907991953352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8766154853889878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6259748077933605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1877310351102821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0118904591216999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6887437972093151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>32 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$G$43:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0098958333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3889168132696659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5486672656483975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8151281276607429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9724982356301881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8519574091841147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0161399446909769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8971158584927892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7754958465714967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2851872119485801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1425592437279288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>64 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$H$43:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.2206651328174023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5719983636735528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7794256706315634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7973851766252009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0752703526007155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4378788474733302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5687686571735426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7736969819260882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2635652138469275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7887091963917658</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9334939726871525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>128 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup MPI'!$I$43:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.277136941733215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3858870141403101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6482075603291952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4302679757622889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0326684668739174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7141125213108541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6846936444382612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9112242815766951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.391375177426994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6733817810106837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97121833290085657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B276-4C32-B85E-20C9E126AACC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="437255768"/>
+        <c:axId val="437249536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437255768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Data Size log2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437249536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437249536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437255768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,7 +5306,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6229667151478687E-2"/>
-          <c:y val="3.6712552539420663E-2"/>
+          <c:y val="4.33875620920426E-2"/>
           <c:w val="0.74849407359111964"/>
           <c:h val="0.81509119797500185"/>
         </c:manualLayout>
@@ -3173,37 +5393,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1087269585253456</c:v>
+                  <c:v>0.99016140441129186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1493681716467026</c:v>
+                  <c:v>1.1037130668352031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0484026838225142</c:v>
+                  <c:v>1.0150642268055017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0376950674404015</c:v>
+                  <c:v>0.9784686341747465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83057123806675137</c:v>
+                  <c:v>1.210630171575974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86731439859421866</c:v>
+                  <c:v>0.9926430700304425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8650970246944556</c:v>
+                  <c:v>0.7264736044408574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82395057234292668</c:v>
+                  <c:v>1.0466157358881343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0240761701017695</c:v>
+                  <c:v>0.85148371963152358</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91501752760099697</c:v>
+                  <c:v>0.97865493570935302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82973678265399453</c:v>
+                  <c:v>0.69186112487901208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3252,37 +5472,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2582121261644059</c:v>
+                  <c:v>1.0885825379992931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0944442703600414</c:v>
+                  <c:v>1.0473177606524933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98969125907390754</c:v>
+                  <c:v>1.139795275117822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0014331662094409</c:v>
+                  <c:v>1.2299108309855065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1124309617057857</c:v>
+                  <c:v>1.4369880625416087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0346433266507404</c:v>
+                  <c:v>1.3673185922977686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0966910867352744</c:v>
+                  <c:v>1.2285466535734557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.153761760373504</c:v>
+                  <c:v>1.4337887954253512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5110324322086659</c:v>
+                  <c:v>1.3477266707562108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1236005291316973</c:v>
+                  <c:v>1.0490655615441353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.058415221424204</c:v>
+                  <c:v>0.82090674279552556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3331,37 +5551,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.5888969146630894</c:v>
+                  <c:v>1.6832094446873633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5884573403674731</c:v>
+                  <c:v>1.5929490103073976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.549321636233806</c:v>
+                  <c:v>1.5273224593230226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.699521584870523</c:v>
+                  <c:v>1.6987988542176504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9710560172724854</c:v>
+                  <c:v>2.0719543285299009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8261215408638889</c:v>
+                  <c:v>2.036921233392484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5782940864657913</c:v>
+                  <c:v>1.9460033549456908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1642905357566367</c:v>
+                  <c:v>1.9587801704312411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2532760938915031</c:v>
+                  <c:v>2.1087005149868761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8383607825860266</c:v>
+                  <c:v>1.6343548961324919</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5380429559122946</c:v>
+                  <c:v>1.6428304408103507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,37 +5630,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.2446064139941693</c:v>
+                  <c:v>2.1872159090909089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3044998680390605</c:v>
+                  <c:v>2.3810075669779809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1305128492873977</c:v>
+                  <c:v>2.4959737058340181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.591754293618636</c:v>
+                  <c:v>2.7281782336417288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6426121437422552</c:v>
+                  <c:v>3.0142927411193341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7802691584942676</c:v>
+                  <c:v>2.9261025590375271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8091659585425517</c:v>
+                  <c:v>2.7625605973741307</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6956598704779915</c:v>
+                  <c:v>3.3006713116611088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9687903390716777</c:v>
+                  <c:v>3.9642593199451457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1086355850461009</c:v>
+                  <c:v>2.7393432004760521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0723177212984862</c:v>
+                  <c:v>2.8992698690822611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,37 +5709,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.5779340364975725</c:v>
+                  <c:v>2.3106242496998801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8734677087618263</c:v>
+                  <c:v>2.7682491876040265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0436873747494988</c:v>
+                  <c:v>2.8932830418714519</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0952224371373305</c:v>
+                  <c:v>2.9056886022095658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4027168751806434</c:v>
+                  <c:v>3.8638040366706528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2251507660545471</c:v>
+                  <c:v>4.1797898499119892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1562897174328484</c:v>
+                  <c:v>3.7494796492684843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7938637665632795</c:v>
+                  <c:v>5.9016182573924691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3638364610996438</c:v>
+                  <c:v>5.6825646619410568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6432700108113663</c:v>
+                  <c:v>3.962152125154125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2614461947963491</c:v>
+                  <c:v>4.9206731131346588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3567,39 +5787,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.1785512167515564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.694776637605123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2057072903035162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4200121083067163</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3563233402989869</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3298237798661861</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.562510580062777</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1489319574849066</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4718388947862344</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0539785321980286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.6812542029864614</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3973,6 +6160,942 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$C$43:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0226472736932988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1532391203856567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0440210069014821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0073125707706507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2276176967676276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0221577452709525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93987564351877217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.152269549589773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9587321132674318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1523505685463216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89848681491730653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C50-47D1-AC73-0E2F6BA37876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$D$43:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3268418785006462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3167081354143104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5582869923870888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2464779196618332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4579086829663133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4058360232699763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2853322160966907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4717018470825989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4589133960478775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2895441592270573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1634806113703977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C50-47D1-AC73-0E2F6BA37876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$E$43:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1828749645591152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7729441624365483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7264976696601113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9384470303873726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3603630326508025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1955178820660586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1891612259018398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2615598571401336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4575121016885042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0993456124864838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9899690816481075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C50-47D1-AC73-0E2F6BA37876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$F$43:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.4429636680945581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7125660142901524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6528330888003913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.002481706279426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4618811077562417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1184665933179119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2365333770037359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9844709106127083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4582439695154017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2579879968184549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1986940475551111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C50-47D1-AC73-0E2F6BA37876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>24 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$B$43:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speedup OpenMP_Recursive'!$G$43:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.7940482671021591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9957114675358092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2192971300182287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7841465594280606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2590770017335178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4041766215379168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0489027645404851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4612027044901073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3287671438962727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4039417614954557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2039505359752356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6C50-47D1-AC73-0E2F6BA37876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="437244616"/>
+        <c:axId val="437244944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437244616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Data Size log2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437244944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437244944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437244616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
               <c:f>'Speedup OpenMP_Iterative'!$B$15:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4740,7 +7863,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4756,7 +7879,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4545540016453169E-2"/>
+          <c:y val="3.0183176788436045E-2"/>
+          <c:w val="0.80511722398336572"/>
+          <c:h val="0.85694272492667989"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5385,6 +8518,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Data Size log2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5450,6 +8638,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5493,6 +8741,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5530,7 +8809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6466,7 +9745,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7412,7 +10691,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8202,826 +11481,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>2 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$C$43:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2154076880574631</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3150225903614459</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2193907863256097</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2268249718967654</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89291791439730428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3675319822394161</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79687234756836023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1341968197968872</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3641977855896725</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.039308100619599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0361584862027626</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F3A-4625-B2D2-45D82A2A4253}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>3 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$D$43:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.6452612458596003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5801212450235251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5831057558006212</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5429119025236295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5208654847313545</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3381016290063792</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2966309025526146</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8428695595355071</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7014376795709156</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3042268896710265</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6888648516864277</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F3A-4625-B2D2-45D82A2A4253}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>6 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$E$43:$E$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0497870074547393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.255100723140496</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2902466976295313</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2941055368945715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2376501498350554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7843379452168211</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4824706478810676</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.140983335112423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3908645767232923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5878337276460628</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4080531257675948</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F3A-4625-B2D2-45D82A2A4253}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>12 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$F$43:$F$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.9157356561257339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9042907034758025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9165066441354943</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4473028640278751</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2552631578947366</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4854159255348054</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7585790613161199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.1144994340756273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9725550383007033</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0410238948651771</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7184497933501799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4F3A-4625-B2D2-45D82A2A4253}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>24 cores</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$B$43:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speedup Cilk_Recursive'!$G$43:$G$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.6187074829931971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.60183561926369</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.590034510471328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0630013433122238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.602904505429898</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8885021254527885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9816534521496281</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4389709114302098</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.253918495297806</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9952732796030901</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9089252373026584</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4F3A-4625-B2D2-45D82A2A4253}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="437253472"/>
-        <c:axId val="437254784"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="437253472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437254784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="437254784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437253472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9063,6 +11522,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10441,6 +12980,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
@@ -14547,16 +18092,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14570,6 +18115,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14613,15 +18188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14777,20 +18352,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14800,6 +18375,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16480,8 +20085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16523,22 +20128,19 @@
         <v>15398</v>
       </c>
       <c r="C2">
-        <v>13888</v>
+        <v>15551</v>
       </c>
       <c r="D2">
-        <v>12238</v>
+        <v>14145</v>
       </c>
       <c r="E2">
-        <v>9691</v>
+        <v>9148</v>
       </c>
       <c r="F2">
-        <v>6860</v>
+        <v>7040</v>
       </c>
       <c r="G2">
-        <v>5973</v>
-      </c>
-      <c r="H2">
-        <v>7068</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -16549,22 +20151,19 @@
         <v>34927</v>
       </c>
       <c r="C3">
-        <v>30388</v>
+        <v>31645</v>
       </c>
       <c r="D3">
-        <v>31913</v>
+        <v>33349</v>
       </c>
       <c r="E3">
-        <v>21988</v>
+        <v>21926</v>
       </c>
       <c r="F3">
-        <v>15156</v>
+        <v>14669</v>
       </c>
       <c r="G3">
-        <v>12155</v>
-      </c>
-      <c r="H3">
-        <v>12961</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -16575,22 +20174,19 @@
         <v>75940</v>
       </c>
       <c r="C4">
-        <v>72434</v>
+        <v>74813</v>
       </c>
       <c r="D4">
-        <v>76731</v>
+        <v>66626</v>
       </c>
       <c r="E4">
-        <v>49015</v>
+        <v>49721</v>
       </c>
       <c r="F4">
-        <v>35644</v>
+        <v>30425</v>
       </c>
       <c r="G4">
-        <v>24950</v>
-      </c>
-      <c r="H4">
-        <v>23689</v>
+        <v>26247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -16601,22 +20197,19 @@
         <v>211723</v>
       </c>
       <c r="C5">
-        <v>204032</v>
+        <v>216382</v>
       </c>
       <c r="D5">
-        <v>211420</v>
+        <v>172145</v>
       </c>
       <c r="E5">
-        <v>124578</v>
+        <v>124631</v>
       </c>
       <c r="F5">
-        <v>81691</v>
+        <v>77606</v>
       </c>
       <c r="G5">
-        <v>51700</v>
-      </c>
-      <c r="H5">
-        <v>47901</v>
+        <v>72865</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -16627,22 +20220,19 @@
         <v>533147</v>
       </c>
       <c r="C6">
-        <v>641904</v>
+        <v>440388</v>
       </c>
       <c r="D6">
-        <v>479263</v>
+        <v>371017</v>
       </c>
       <c r="E6">
-        <v>270488</v>
+        <v>257316</v>
       </c>
       <c r="F6">
-        <v>201750</v>
+        <v>176873</v>
       </c>
       <c r="G6">
-        <v>121095</v>
-      </c>
-      <c r="H6">
-        <v>99536</v>
+        <v>137985</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -16653,22 +20243,19 @@
         <v>1244290</v>
       </c>
       <c r="C7">
-        <v>1434647</v>
+        <v>1253512</v>
       </c>
       <c r="D7">
-        <v>1202627</v>
+        <v>910022</v>
       </c>
       <c r="E7">
-        <v>681384</v>
+        <v>610868</v>
       </c>
       <c r="F7">
-        <v>447543</v>
+        <v>425238</v>
       </c>
       <c r="G7">
-        <v>294496</v>
-      </c>
-      <c r="H7">
-        <v>233458</v>
+        <v>297692</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -16679,22 +20266,19 @@
         <v>2727349</v>
       </c>
       <c r="C8">
-        <v>3152651</v>
+        <v>3754230</v>
       </c>
       <c r="D8">
-        <v>2486889</v>
+        <v>2219980</v>
       </c>
       <c r="E8">
-        <v>1728036</v>
+        <v>1401513</v>
       </c>
       <c r="F8">
-        <v>970875</v>
+        <v>987254</v>
       </c>
       <c r="G8">
-        <v>656198</v>
-      </c>
-      <c r="H8">
-        <v>490309</v>
+        <v>727394</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -16705,22 +20289,19 @@
         <v>7473951</v>
       </c>
       <c r="C9">
-        <v>9070873</v>
+        <v>7141065</v>
       </c>
       <c r="D9">
-        <v>6477898</v>
+        <v>5212728</v>
       </c>
       <c r="E9">
-        <v>3453303</v>
+        <v>3815615</v>
       </c>
       <c r="F9">
-        <v>2022359</v>
+        <v>2264373</v>
       </c>
       <c r="G9">
-        <v>1289977</v>
-      </c>
-      <c r="H9">
-        <v>1045464</v>
+        <v>1266424</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -16731,22 +20312,19 @@
         <v>16827040</v>
       </c>
       <c r="C10">
-        <v>16431434</v>
+        <v>19762022</v>
       </c>
       <c r="D10">
-        <v>11136121</v>
+        <v>12485499</v>
       </c>
       <c r="E10">
-        <v>7467811</v>
+        <v>7979815</v>
       </c>
       <c r="F10">
-        <v>4239841</v>
+        <v>4244687</v>
       </c>
       <c r="G10">
-        <v>2644166</v>
-      </c>
-      <c r="H10">
-        <v>2600040</v>
+        <v>2961170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -16757,22 +20335,19 @@
         <v>29659918</v>
       </c>
       <c r="C11">
-        <v>32414590</v>
+        <v>30306819</v>
       </c>
       <c r="D11">
-        <v>26397209</v>
+        <v>28272702</v>
       </c>
       <c r="E11">
-        <v>16133894</v>
+        <v>18147783</v>
       </c>
       <c r="F11">
-        <v>9541137</v>
+        <v>10827383</v>
       </c>
       <c r="G11">
-        <v>6387722</v>
-      </c>
-      <c r="H11">
-        <v>4899244</v>
+        <v>7485810</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -16783,22 +20358,19 @@
         <v>63370249</v>
       </c>
       <c r="C12">
-        <v>76373918</v>
+        <v>91593886</v>
       </c>
       <c r="D12">
-        <v>59872768</v>
+        <v>77195430</v>
       </c>
       <c r="E12">
-        <v>41201872</v>
+        <v>38573822</v>
       </c>
       <c r="F12">
-        <v>20626203</v>
+        <v>21857313</v>
       </c>
       <c r="G12">
-        <v>14870597</v>
-      </c>
-      <c r="H12">
-        <v>11154271</v>
+        <v>12878370</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -16833,27 +20405,23 @@
       </c>
       <c r="C15">
         <f>$B2/C2</f>
-        <v>1.1087269585253456</v>
+        <v>0.99016140441129186</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:H15" si="0">$B2/D2</f>
-        <v>1.2582121261644059</v>
+        <f t="shared" ref="D15:G15" si="0">$B2/D2</f>
+        <v>1.0885825379992931</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.5888969146630894</v>
+        <v>1.6832094446873633</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>2.2446064139941693</v>
+        <v>2.1872159090909089</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2.5779340364975725</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>2.1785512167515564</v>
+        <v>2.3106242496998801</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -16861,28 +20429,24 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:H25" si="1">$B3/C3</f>
-        <v>1.1493681716467026</v>
+        <f t="shared" ref="C16:G25" si="1">$B3/C3</f>
+        <v>1.1037130668352031</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.0944442703600414</v>
+        <v>1.0473177606524933</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1.5884573403674731</v>
+        <v>1.5929490103073976</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>2.3044998680390605</v>
+        <v>2.3810075669779809</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>2.8734677087618263</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>2.694776637605123</v>
+        <v>2.7682491876040265</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16891,27 +20455,23 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>1.0484026838225142</v>
+        <v>1.0150642268055017</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.98969125907390754</v>
+        <v>1.139795275117822</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1.549321636233806</v>
+        <v>1.5273224593230226</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>2.1305128492873977</v>
+        <v>2.4959737058340181</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>3.0436873747494988</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>3.2057072903035162</v>
+        <v>2.8932830418714519</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16920,27 +20480,23 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>1.0376950674404015</v>
+        <v>0.9784686341747465</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.0014331662094409</v>
+        <v>1.2299108309855065</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>1.699521584870523</v>
+        <v>1.6987988542176504</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>2.591754293618636</v>
+        <v>2.7281782336417288</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>4.0952224371373305</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>4.4200121083067163</v>
+        <v>2.9056886022095658</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -16949,27 +20505,23 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.83057123806675137</v>
+        <v>1.210630171575974</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.1124309617057857</v>
+        <v>1.4369880625416087</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>1.9710560172724854</v>
+        <v>2.0719543285299009</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>2.6426121437422552</v>
+        <v>3.0142927411193341</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>4.4027168751806434</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>5.3563233402989869</v>
+        <v>3.8638040366706528</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -16978,27 +20530,23 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.86731439859421866</v>
+        <v>0.9926430700304425</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.0346433266507404</v>
+        <v>1.3673185922977686</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>1.8261215408638889</v>
+        <v>2.036921233392484</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.7802691584942676</v>
+        <v>2.9261025590375271</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>4.2251507660545471</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>5.3298237798661861</v>
+        <v>4.1797898499119892</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -17007,27 +20555,23 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.8650970246944556</v>
+        <v>0.7264736044408574</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.0966910867352744</v>
+        <v>1.2285466535734557</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>1.5782940864657913</v>
+        <v>1.9460033549456908</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>2.8091659585425517</v>
+        <v>2.7625605973741307</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>4.1562897174328484</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>5.562510580062777</v>
+        <v>3.7494796492684843</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -17036,27 +20580,23 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.82395057234292668</v>
+        <v>1.0466157358881343</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.153761760373504</v>
+        <v>1.4337887954253512</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>2.1642905357566367</v>
+        <v>1.9587801704312411</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>3.6956598704779915</v>
+        <v>3.3006713116611088</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>5.7938637665632795</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>7.1489319574849066</v>
+        <v>5.9016182573924691</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -17065,27 +20605,23 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1.0240761701017695</v>
+        <v>0.85148371963152358</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.5110324322086659</v>
+        <v>1.3477266707562108</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>2.2532760938915031</v>
+        <v>2.1087005149868761</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>3.9687903390716777</v>
+        <v>3.9642593199451457</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>6.3638364610996438</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>6.4718388947862344</v>
+        <v>5.6825646619410568</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -17094,27 +20630,23 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.91501752760099697</v>
+        <v>0.97865493570935302</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1.1236005291316973</v>
+        <v>1.0490655615441353</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>1.8383607825860266</v>
+        <v>1.6343548961324919</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>3.1086355850461009</v>
+        <v>2.7393432004760521</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>4.6432700108113663</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>6.0539785321980286</v>
+        <v>3.962152125154125</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -17123,53 +20655,23 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.82973678265399453</v>
+        <v>0.69186112487901208</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.058415221424204</v>
+        <v>0.82090674279552556</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>1.5380429559122946</v>
+        <v>1.6428304408103507</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>3.0723177212984862</v>
+        <v>2.8992698690822611</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>4.2614461947963491</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>5.6812542029864614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <f>AVERAGE(C15:C25)</f>
-        <v>0.95454150868091603</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:H26" si="2">AVERAGE(D15:D25)</f>
-        <v>1.1303960127306969</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>1.7814217717166834</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>2.8498931092375086</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>4.2215350317349909</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>4.9185189582409539</v>
+        <v>4.9206731131346588</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -17205,6 +20707,21 @@
       <c r="B30">
         <v>15398</v>
       </c>
+      <c r="C30">
+        <v>15057</v>
+      </c>
+      <c r="D30">
+        <v>11605</v>
+      </c>
+      <c r="E30">
+        <v>7054</v>
+      </c>
+      <c r="F30">
+        <v>6303</v>
+      </c>
+      <c r="G30">
+        <v>5511</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -17213,6 +20730,21 @@
       <c r="B31">
         <v>34927</v>
       </c>
+      <c r="C31">
+        <v>30286</v>
+      </c>
+      <c r="D31">
+        <v>26526</v>
+      </c>
+      <c r="E31">
+        <v>19700</v>
+      </c>
+      <c r="F31">
+        <v>12876</v>
+      </c>
+      <c r="G31">
+        <v>11659</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -17221,6 +20753,21 @@
       <c r="B32">
         <v>75940</v>
       </c>
+      <c r="C32">
+        <v>72738</v>
+      </c>
+      <c r="D32">
+        <v>48733</v>
+      </c>
+      <c r="E32">
+        <v>43985</v>
+      </c>
+      <c r="F32">
+        <v>28626</v>
+      </c>
+      <c r="G32">
+        <v>23589</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -17229,6 +20776,21 @@
       <c r="B33">
         <v>211723</v>
       </c>
+      <c r="C33">
+        <v>210186</v>
+      </c>
+      <c r="D33">
+        <v>169857</v>
+      </c>
+      <c r="E33">
+        <v>109223</v>
+      </c>
+      <c r="F33">
+        <v>70516</v>
+      </c>
+      <c r="G33">
+        <v>55950</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -17237,6 +20799,21 @@
       <c r="B34">
         <v>533147</v>
       </c>
+      <c r="C34">
+        <v>434294</v>
+      </c>
+      <c r="D34">
+        <v>365693</v>
+      </c>
+      <c r="E34">
+        <v>225875</v>
+      </c>
+      <c r="F34">
+        <v>154005</v>
+      </c>
+      <c r="G34">
+        <v>125179</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -17245,6 +20822,21 @@
       <c r="B35">
         <v>1244290</v>
       </c>
+      <c r="C35">
+        <v>1217317</v>
+      </c>
+      <c r="D35">
+        <v>885089</v>
+      </c>
+      <c r="E35">
+        <v>566741</v>
+      </c>
+      <c r="F35">
+        <v>399007</v>
+      </c>
+      <c r="G35">
+        <v>282525</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -17253,6 +20845,21 @@
       <c r="B36">
         <v>2727349</v>
       </c>
+      <c r="C36">
+        <v>2901819</v>
+      </c>
+      <c r="D36">
+        <v>2121902</v>
+      </c>
+      <c r="E36">
+        <v>1245842</v>
+      </c>
+      <c r="F36">
+        <v>842676</v>
+      </c>
+      <c r="G36">
+        <v>673602</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -17261,6 +20868,21 @@
       <c r="B37">
         <v>7473951</v>
       </c>
+      <c r="C37">
+        <v>6486287</v>
+      </c>
+      <c r="D37">
+        <v>5078441</v>
+      </c>
+      <c r="E37">
+        <v>3304777</v>
+      </c>
+      <c r="F37">
+        <v>1875770</v>
+      </c>
+      <c r="G37">
+        <v>1156743</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -17269,6 +20891,21 @@
       <c r="B38">
         <v>16827040</v>
       </c>
+      <c r="C38">
+        <v>17551347</v>
+      </c>
+      <c r="D38">
+        <v>11533954</v>
+      </c>
+      <c r="E38">
+        <v>6847185</v>
+      </c>
+      <c r="F38">
+        <v>3774365</v>
+      </c>
+      <c r="G38">
+        <v>2658818</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -17277,6 +20914,21 @@
       <c r="B39">
         <v>29659918</v>
       </c>
+      <c r="C39">
+        <v>25738624</v>
+      </c>
+      <c r="D39">
+        <v>23000312</v>
+      </c>
+      <c r="E39">
+        <v>14128173</v>
+      </c>
+      <c r="F39">
+        <v>9103753</v>
+      </c>
+      <c r="G39">
+        <v>6734857</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -17285,6 +20937,21 @@
       <c r="B40">
         <v>63370249</v>
       </c>
+      <c r="C40">
+        <v>70529971</v>
+      </c>
+      <c r="D40">
+        <v>54466098</v>
+      </c>
+      <c r="E40">
+        <v>31844841</v>
+      </c>
+      <c r="F40">
+        <v>19811288</v>
+      </c>
+      <c r="G40">
+        <v>12177335</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -17316,55 +20983,275 @@
       <c r="B43">
         <v>15</v>
       </c>
+      <c r="C43">
+        <f>$B30/C30</f>
+        <v>1.0226472736932988</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:G43" si="2">$B30/D30</f>
+        <v>1.3268418785006462</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>2.1828749645591152</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>2.4429636680945581</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>2.7940482671021591</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>16</v>
       </c>
+      <c r="C44">
+        <f t="shared" ref="C44:G53" si="3">$B31/C31</f>
+        <v>1.1532391203856567</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>1.3167081354143104</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>1.7729441624365483</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>2.7125660142901524</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>2.9957114675358092</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>17</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>1.0440210069014821</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>1.5582869923870888</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>1.7264976696601113</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>2.6528330888003913</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>3.2192971300182287</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>18</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>1.0073125707706507</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>1.2464779196618332</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1.9384470303873726</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>3.002481706279426</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>3.7841465594280606</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>19</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>1.2276176967676276</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>1.4579086829663133</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>2.3603630326508025</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>3.4618811077562417</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>4.2590770017335178</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>1.0221577452709525</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>1.4058360232699763</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>2.1955178820660586</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>3.1184665933179119</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>4.4041766215379168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>0.93987564351877217</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>1.2853322160966907</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>2.1891612259018398</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>3.2365333770037359</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>4.0489027645404851</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>1.152269549589773</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>1.4717018470825989</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>2.2615598571401336</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>3.9844709106127083</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>6.4612027044901073</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>0.9587321132674318</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>1.4589133960478775</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>2.4575121016885042</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>4.4582439695154017</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>6.3287671438962727</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>1.1523505685463216</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>1.2895441592270573</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>2.0993456124864838</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>3.2579879968184549</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>4.4039417614954557</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>25</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>0.89848681491730653</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>1.1634806113703977</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1.9899690816481075</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>3.1986940475551111</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>5.2039505359752356</v>
       </c>
     </row>
   </sheetData>
@@ -17377,8 +21264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18553,7 +22440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
@@ -19729,8 +23616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20903,10 +24790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20942,263 +24829,321 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>34927</v>
+        <v>15398</v>
       </c>
       <c r="C2">
-        <v>16939</v>
+        <v>7000</v>
       </c>
       <c r="D2">
-        <v>12258</v>
+        <v>5030</v>
       </c>
       <c r="E2">
-        <v>10265</v>
+        <v>4223</v>
       </c>
       <c r="F2">
-        <v>9356</v>
+        <v>3901</v>
       </c>
       <c r="G2">
-        <v>9366</v>
+        <v>3928</v>
       </c>
       <c r="H2">
-        <v>19260</v>
+        <v>5064</v>
       </c>
       <c r="I2">
-        <v>39311</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>75940</v>
+        <v>34927</v>
       </c>
       <c r="C3">
-        <v>37337</v>
+        <v>16175</v>
       </c>
       <c r="D3">
-        <v>26710</v>
+        <v>11372</v>
       </c>
       <c r="E3">
-        <v>21788</v>
+        <v>9392</v>
       </c>
       <c r="F3">
-        <v>19760</v>
+        <v>8286</v>
       </c>
       <c r="G3">
-        <v>19993</v>
+        <v>8090</v>
       </c>
       <c r="H3">
-        <v>32611</v>
+        <v>10282</v>
       </c>
       <c r="I3">
-        <v>52896</v>
+        <v>15502</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>211723</v>
+        <v>75940</v>
       </c>
       <c r="C4">
-        <v>82859</v>
+        <v>35761</v>
       </c>
       <c r="D4">
-        <v>58108</v>
+        <v>26010</v>
       </c>
       <c r="E4">
-        <v>47051</v>
+        <v>19444</v>
       </c>
       <c r="F4">
-        <v>41321</v>
+        <v>17472</v>
       </c>
       <c r="G4">
-        <v>41047</v>
+        <v>17160</v>
       </c>
       <c r="H4">
-        <v>56236</v>
+        <v>21613</v>
       </c>
       <c r="I4">
-        <v>88046</v>
+        <v>30430</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>533147</v>
+        <v>211723</v>
       </c>
       <c r="C5">
-        <v>260245</v>
+        <v>79138</v>
       </c>
       <c r="D5">
-        <v>178339</v>
+        <v>54128</v>
       </c>
       <c r="E5">
-        <v>133584</v>
+        <v>42496</v>
       </c>
       <c r="F5">
-        <v>106468</v>
+        <v>37748</v>
       </c>
       <c r="G5">
-        <v>96315</v>
+        <v>36695</v>
       </c>
       <c r="H5">
-        <v>116961</v>
+        <v>45978</v>
       </c>
       <c r="I5">
-        <v>174802</v>
+        <v>62602</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>1244290</v>
+        <v>533147</v>
       </c>
       <c r="C6">
-        <v>618117</v>
+        <v>249153</v>
       </c>
       <c r="D6">
-        <v>410212</v>
+        <v>173619</v>
       </c>
       <c r="E6">
-        <v>301597</v>
+        <v>126958</v>
       </c>
       <c r="F6">
-        <v>231634</v>
+        <v>99320</v>
       </c>
       <c r="G6">
-        <v>205960</v>
+        <v>89993</v>
       </c>
       <c r="H6">
-        <v>232237</v>
+        <v>133447</v>
       </c>
       <c r="I6">
-        <v>338831</v>
+        <v>136392</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>2727349</v>
+        <v>1244290</v>
       </c>
       <c r="C7">
-        <v>1390355</v>
+        <v>605793</v>
       </c>
       <c r="D7">
-        <v>897697</v>
+        <v>401355</v>
       </c>
       <c r="E7">
-        <v>651675</v>
+        <v>290657</v>
       </c>
       <c r="F7">
-        <v>498898</v>
+        <v>222388</v>
       </c>
       <c r="G7">
-        <v>441557</v>
+        <v>215227</v>
       </c>
       <c r="H7">
-        <v>475694</v>
+        <v>265473</v>
       </c>
       <c r="I7">
-        <v>590207</v>
+        <v>283442</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>7473951</v>
+        <v>2727349</v>
       </c>
       <c r="C8">
-        <v>3105413</v>
+        <v>1353075</v>
       </c>
       <c r="D8">
-        <v>1949120</v>
+        <v>877773</v>
       </c>
       <c r="E8">
-        <v>1392240</v>
+        <v>614871</v>
       </c>
       <c r="F8">
-        <v>1054214</v>
+        <v>472608</v>
       </c>
       <c r="G8">
-        <v>922515</v>
+        <v>396017</v>
       </c>
       <c r="H8">
-        <v>1039795</v>
+        <v>583424</v>
       </c>
       <c r="I8">
-        <v>1221839</v>
+        <v>688416</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>16827040</v>
+        <v>7473951</v>
       </c>
       <c r="C9">
-        <v>6792859</v>
+        <v>3105701</v>
       </c>
       <c r="D9">
-        <v>4117677</v>
+        <v>1921523</v>
       </c>
       <c r="E9">
-        <v>2925647</v>
+        <v>1338266</v>
       </c>
       <c r="F9">
-        <v>2411036</v>
+        <v>994027</v>
       </c>
       <c r="G9">
-        <v>2396261</v>
+        <v>855494</v>
       </c>
       <c r="H9">
-        <v>2071757</v>
+        <v>1147222</v>
       </c>
       <c r="I9">
-        <v>2407408</v>
+        <v>1364150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>16827040</v>
+      </c>
+      <c r="C10">
+        <v>6621341</v>
+      </c>
+      <c r="D10">
+        <v>4093724</v>
+      </c>
+      <c r="E10">
+        <v>2787337</v>
+      </c>
+      <c r="F10">
+        <v>2078167</v>
+      </c>
+      <c r="G10">
+        <v>1731294</v>
+      </c>
+      <c r="H10">
+        <v>2399782</v>
+      </c>
+      <c r="I10">
+        <v>2902822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>29659918</v>
       </c>
-      <c r="C10">
-        <v>14969149</v>
-      </c>
-      <c r="D10">
-        <v>9010152</v>
-      </c>
-      <c r="E10">
-        <v>6088058</v>
-      </c>
-      <c r="F10">
-        <v>4564582</v>
-      </c>
-      <c r="G10">
-        <v>3970628</v>
-      </c>
-      <c r="H10">
-        <v>4869827</v>
-      </c>
-      <c r="I10">
-        <v>5738430</v>
+      <c r="C11">
+        <v>14562009</v>
+      </c>
+      <c r="D11">
+        <v>8753081</v>
+      </c>
+      <c r="E11">
+        <v>6053984</v>
+      </c>
+      <c r="F11">
+        <v>4404486</v>
+      </c>
+      <c r="G11">
+        <v>3662141</v>
+      </c>
+      <c r="H11">
+        <v>4426010</v>
+      </c>
+      <c r="I11">
+        <v>6015141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>63370249</v>
+      </c>
+      <c r="C12">
+        <v>41788532</v>
+      </c>
+      <c r="D12">
+        <v>22442177</v>
+      </c>
+      <c r="E12">
+        <v>13435144</v>
+      </c>
+      <c r="F12">
+        <v>12409443</v>
+      </c>
+      <c r="G12">
+        <v>7922497</v>
+      </c>
+      <c r="H12">
+        <v>9662390</v>
+      </c>
+      <c r="I12">
+        <v>69805233</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -21232,302 +25177,1111 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <f>$B2/C2</f>
-        <v>2.0619280949288625</v>
+        <v>2.1997142857142857</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:I15" si="0">$B2/D2</f>
-        <v>2.8493228911731112</v>
+        <f>$B2/D2</f>
+        <v>3.0612326043737577</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>3.4025328787140769</v>
+        <f t="shared" ref="E15:I15" si="0">$B2/E2</f>
+        <v>3.6462230641723892</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>3.7331124412141943</v>
+        <v>3.9471930274288645</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>3.7291266282297673</v>
+        <v>3.9200610997963339</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.8134475597092419</v>
+        <v>3.0406793048973144</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.88847905166492835</v>
+        <v>2.1400972897845727</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:I23" si="1">$B3/C3</f>
-        <v>2.0339073840962048</v>
+        <f t="shared" ref="C16:D25" si="1">$B3/C3</f>
+        <v>2.1593199381761981</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.8431299138899289</v>
+        <v>3.0713155117833275</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>3.4854048099871489</v>
+        <f t="shared" ref="E16:I16" si="2">$B3/E3</f>
+        <v>3.7188032367972741</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>3.8431174089068825</v>
+        <f t="shared" si="2"/>
+        <v>4.2151822350953418</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>3.7983294152953535</v>
+        <f t="shared" si="2"/>
+        <v>4.3173053152039556</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>2.3286621078777099</v>
+        <f t="shared" si="2"/>
+        <v>3.3969072164948453</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>1.435647307924985</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.2530641207586117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>2.5552203140274443</v>
+        <v>2.1235424065322559</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3.6436118950918979</v>
+        <v>2.9196462898885045</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>4.4998618520329003</v>
+        <f t="shared" ref="E17:I17" si="3">$B4/E4</f>
+        <v>3.9055749845710759</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>5.1238595387333321</v>
+        <f t="shared" si="3"/>
+        <v>4.3463827838827838</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>5.1580627086023343</v>
+        <f t="shared" si="3"/>
+        <v>4.4254079254079253</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>3.7649014865922186</v>
+        <f t="shared" si="3"/>
+        <v>3.5136260583907832</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>2.4046861867660088</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.4955635885639174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>2.0486349401525485</v>
+        <v>2.6753645530592132</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.9895143518804077</v>
+        <v>3.9115245344368903</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>3.9910992334411306</v>
+        <f t="shared" ref="E18:I18" si="4">$B5/E5</f>
+        <v>4.9821865587349397</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>5.0075797422699777</v>
+        <f t="shared" si="4"/>
+        <v>5.6088534491893611</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>5.5354513834812851</v>
+        <f t="shared" si="4"/>
+        <v>5.7698051505654719</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>4.558331409615171</v>
+        <f t="shared" si="4"/>
+        <v>4.604876245160729</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>3.0500051486825095</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.3820484968531357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>2.0130331312680285</v>
+        <v>2.1398377703659999</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>3.0332852281259446</v>
+        <v>3.0707871834303848</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>4.1256710113164257</v>
+        <f t="shared" ref="E19:I19" si="5">$B6/E6</f>
+        <v>4.1993966508609146</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>5.3717934327430346</v>
+        <f t="shared" si="5"/>
+        <v>5.3679722110350383</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>6.0414158088949312</v>
+        <f t="shared" si="5"/>
+        <v>5.9243163357149999</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>5.3578456490567827</v>
+        <f t="shared" si="5"/>
+        <v>3.9951965949028452</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>3.6723027113811901</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>3.9089316088920172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>1.9616205933017108</v>
+        <v>2.0539854372698265</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3.0381620970104612</v>
+        <v>3.1002229946057729</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>4.1851367629569953</v>
+        <f t="shared" ref="E20:I20" si="6">$B7/E7</f>
+        <v>4.2809565914462748</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>5.4667467097482856</v>
+        <f t="shared" si="6"/>
+        <v>5.5951310322499417</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>6.1766634885190363</v>
+        <f t="shared" si="6"/>
+        <v>5.7812913807282547</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>5.733410553843437</v>
+        <f t="shared" si="6"/>
+        <v>4.6870679880816501</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>4.6210041561689374</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>4.3899280981647042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>2.4067494404125958</v>
+        <v>2.015667276388966</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>3.8345258373009359</v>
+        <v>3.1071233678866861</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>5.368292104809516</v>
+        <f t="shared" ref="E21:I21" si="7">$B8/E8</f>
+        <v>4.4356442245609244</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>7.089595660843055</v>
+        <f t="shared" si="7"/>
+        <v>5.7708481447626783</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>8.101712167281832</v>
+        <f t="shared" si="7"/>
+        <v>6.8869492976311619</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>7.1879081934419764</v>
+        <f t="shared" si="7"/>
+        <v>4.6747288421456776</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>6.1169687659339731</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.9617745665411612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>2.4771660945707836</v>
+        <v>2.4065262560690805</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>4.0865371421799237</v>
+        <v>3.8895974703399334</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>5.7515619621916105</v>
+        <f t="shared" ref="E22:I22" si="8">$B9/E9</f>
+        <v>5.5848022739873837</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>6.9791740977737371</v>
+        <f t="shared" si="8"/>
+        <v>7.5188611576949116</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>7.0222066794894209</v>
+        <f t="shared" si="8"/>
+        <v>8.7364154511896057</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>8.1221108460113811</v>
+        <f t="shared" si="8"/>
+        <v>6.5148253781744074</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>6.9896918179220142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>5.478833705970751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1.9814030844371981</v>
+        <v>2.5413341496835762</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.2918332565310773</v>
+        <v>4.1104480907848204</v>
       </c>
       <c r="E23">
+        <f t="shared" ref="E23:I23" si="9">$B10/E10</f>
+        <v>6.0369592912518293</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>8.0970586098229838</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>9.7193428730186788</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>7.0119035812419632</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>5.7967867130674913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="1"/>
-        <v>4.8718192237984592</v>
-      </c>
-      <c r="F23">
+        <v>2.0368012408178018</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="1"/>
-        <v>6.4978387944394473</v>
-      </c>
-      <c r="G23">
+        <v>3.3885117708838752</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:I24" si="10">$B11/E11</f>
+        <v>4.8992395751293696</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>6.7340248101594602</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>8.0990650005010725</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>6.7012767707257774</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>4.9308765995676573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="1"/>
-        <v>7.469830465105268</v>
-      </c>
-      <c r="H23">
+        <v>1.5164507094913025</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="1"/>
-        <v>6.0905485964901835</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>5.1686468250026572</v>
+        <v>2.8237122004696782</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:I25" si="11">$B12/E12</f>
+        <v>4.7167524962888381</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="11"/>
+        <v>5.1066150994851256</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="11"/>
+        <v>7.9987722305227758</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>6.5584445463285999</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>0.90781516337034507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>15398</v>
+      </c>
+      <c r="C30">
+        <v>6838</v>
+      </c>
+      <c r="D30">
+        <v>4949</v>
+      </c>
+      <c r="E30">
+        <v>4099</v>
+      </c>
+      <c r="F30">
+        <v>3787</v>
+      </c>
+      <c r="G30">
+        <v>3840</v>
+      </c>
+      <c r="H30">
+        <v>4781</v>
+      </c>
+      <c r="I30">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>34927</v>
+      </c>
+      <c r="C31">
+        <v>15979</v>
+      </c>
+      <c r="D31">
+        <v>11156</v>
+      </c>
+      <c r="E31">
+        <v>9023</v>
+      </c>
+      <c r="F31">
+        <v>8018</v>
+      </c>
+      <c r="G31">
+        <v>7958</v>
+      </c>
+      <c r="H31">
+        <v>9778</v>
+      </c>
+      <c r="I31">
+        <v>14639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>75940</v>
+      </c>
+      <c r="C32">
+        <v>35285</v>
+      </c>
+      <c r="D32">
+        <v>24136</v>
+      </c>
+      <c r="E32">
+        <v>19221</v>
+      </c>
+      <c r="F32">
+        <v>16843</v>
+      </c>
+      <c r="G32">
+        <v>16695</v>
+      </c>
+      <c r="H32">
+        <v>20093</v>
+      </c>
+      <c r="I32">
+        <v>28676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>211723</v>
+      </c>
+      <c r="C33">
+        <v>78451</v>
+      </c>
+      <c r="D33">
+        <v>53693</v>
+      </c>
+      <c r="E33">
+        <v>42333</v>
+      </c>
+      <c r="F33">
+        <v>37576</v>
+      </c>
+      <c r="G33">
+        <v>36409</v>
+      </c>
+      <c r="H33">
+        <v>44133</v>
+      </c>
+      <c r="I33">
+        <v>61722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>533147</v>
+      </c>
+      <c r="C34">
+        <v>245260</v>
+      </c>
+      <c r="D34">
+        <v>170583</v>
+      </c>
+      <c r="E34">
+        <v>125475</v>
+      </c>
+      <c r="F34">
+        <v>98705</v>
+      </c>
+      <c r="G34">
+        <v>89267</v>
+      </c>
+      <c r="H34">
+        <v>105048</v>
+      </c>
+      <c r="I34">
+        <v>132207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>1244290</v>
+      </c>
+      <c r="C35">
+        <v>593205</v>
+      </c>
+      <c r="D35">
+        <v>395964</v>
+      </c>
+      <c r="E35">
+        <v>283273</v>
+      </c>
+      <c r="F35">
+        <v>215742</v>
+      </c>
+      <c r="G35">
+        <v>212628</v>
+      </c>
+      <c r="H35">
+        <v>228819</v>
+      </c>
+      <c r="I35">
+        <v>263950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>2727349</v>
+      </c>
+      <c r="C36">
+        <v>1320576</v>
+      </c>
+      <c r="D36">
+        <v>865525</v>
+      </c>
+      <c r="E36">
+        <v>603769</v>
+      </c>
+      <c r="F36">
+        <v>464102</v>
+      </c>
+      <c r="G36">
+        <v>388725</v>
+      </c>
+      <c r="H36">
+        <v>489758</v>
+      </c>
+      <c r="I36">
+        <v>582183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>7473951</v>
+      </c>
+      <c r="C37">
+        <v>3046131</v>
+      </c>
+      <c r="D37">
+        <v>1885854</v>
+      </c>
+      <c r="E37">
+        <v>1311607</v>
+      </c>
+      <c r="F37">
+        <v>980065</v>
+      </c>
+      <c r="G37">
+        <v>840042</v>
+      </c>
+      <c r="H37">
+        <v>961441</v>
+      </c>
+      <c r="I37">
+        <v>1264366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>16827040</v>
+      </c>
+      <c r="C38">
+        <v>6550292</v>
+      </c>
+      <c r="D38">
+        <v>4047444</v>
+      </c>
+      <c r="E38">
+        <v>2758070</v>
+      </c>
+      <c r="F38">
+        <v>2055153</v>
+      </c>
+      <c r="G38">
+        <v>1721349</v>
+      </c>
+      <c r="H38">
+        <v>2036293</v>
+      </c>
+      <c r="I38">
+        <v>2632773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>29659918</v>
+      </c>
+      <c r="C39">
+        <v>14392544</v>
+      </c>
+      <c r="D39">
+        <v>8660459</v>
+      </c>
+      <c r="E39">
+        <v>5984097</v>
+      </c>
+      <c r="F39">
+        <v>4229946</v>
+      </c>
+      <c r="G39">
+        <v>3579873</v>
+      </c>
+      <c r="H39">
+        <v>4369007</v>
+      </c>
+      <c r="I39">
+        <v>5227908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>63370249</v>
+      </c>
+      <c r="C40">
+        <v>31891444</v>
+      </c>
+      <c r="D40">
+        <v>19085761</v>
+      </c>
+      <c r="E40">
+        <v>12846261</v>
+      </c>
+      <c r="F40">
+        <v>9474163</v>
+      </c>
+      <c r="G40">
+        <v>7782596</v>
+      </c>
+      <c r="H40">
+        <v>9139728</v>
+      </c>
+      <c r="I40">
+        <v>65248201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <f>$B30/C30</f>
+        <v>2.2518280198888565</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:I43" si="12">$B30/D30</f>
+        <v>3.1113356233582543</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="12"/>
+        <v>3.7565259819468162</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="12"/>
+        <v>4.0660153155532086</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="12"/>
+        <v>4.0098958333333332</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>3.2206651328174023</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
+        <v>2.277136941733215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I53" si="13">$B31/C31</f>
+        <v>2.1858063708617559</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="13"/>
+        <v>3.1307816421656507</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="13"/>
+        <v>3.8708855147955226</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="13"/>
+        <v>4.3560738338737837</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="13"/>
+        <v>4.3889168132696659</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="13"/>
+        <v>3.5719983636735528</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="13"/>
+        <v>2.3858870141403101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="13"/>
+        <v>2.1521893155731897</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="13"/>
+        <v>3.1463374212794166</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="13"/>
+        <v>3.950887050621716</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="13"/>
+        <v>4.5086979754200556</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="13"/>
+        <v>4.5486672656483975</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>3.7794256706315634</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>2.6482075603291952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="13"/>
+        <v>2.6987928770825103</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="13"/>
+        <v>3.9432141992438492</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="13"/>
+        <v>5.0013700895282636</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="13"/>
+        <v>5.6345273578880137</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="13"/>
+        <v>5.8151281276607429</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="13"/>
+        <v>4.7973851766252009</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>3.4302679757622889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="13"/>
+        <v>2.1738033107722416</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="13"/>
+        <v>3.1254404014468031</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="13"/>
+        <v>4.249029687188683</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="13"/>
+        <v>5.4014183678638368</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="13"/>
+        <v>5.9724982356301881</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="13"/>
+        <v>5.0752703526007155</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="13"/>
+        <v>4.0326684668739174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="13"/>
+        <v>2.0975716657816439</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="13"/>
+        <v>3.1424321402955826</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="13"/>
+        <v>4.3925471188570739</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="13"/>
+        <v>5.7674907991953352</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="13"/>
+        <v>5.8519574091841147</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="13"/>
+        <v>5.4378788474733302</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="13"/>
+        <v>4.7141125213108541</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="13"/>
+        <v>2.0652722751284287</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="13"/>
+        <v>3.1510921117240982</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>4.5172060837836989</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="13"/>
+        <v>5.8766154853889878</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>7.0161399446909769</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>5.5687686571735426</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>4.6846936444382612</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="13"/>
+        <v>2.4535881746385826</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="13"/>
+        <v>3.9631652291216604</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="13"/>
+        <v>5.6983158827301166</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="13"/>
+        <v>7.6259748077933605</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="13"/>
+        <v>8.8971158584927892</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="13"/>
+        <v>7.7736969819260882</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="13"/>
+        <v>5.9112242815766951</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="13"/>
+        <v>2.5688992185386543</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="13"/>
+        <v>4.157448503302331</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="13"/>
+        <v>6.1010199161007517</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="13"/>
+        <v>8.1877310351102821</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="13"/>
+        <v>9.7754958465714967</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>8.2635652138469275</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="13"/>
+        <v>6.391375177426994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="13"/>
+        <v>2.060783555707733</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="13"/>
+        <v>3.4247512747303577</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="13"/>
+        <v>4.9564567552965801</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="13"/>
+        <v>7.0118904591216999</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="13"/>
+        <v>8.2851872119485801</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="13"/>
+        <v>6.7887091963917658</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="13"/>
+        <v>5.6733817810106837</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="13"/>
+        <v>1.9870611377772671</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="13"/>
+        <v>3.3202893507887894</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="13"/>
+        <v>4.9329722477225086</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="13"/>
+        <v>6.6887437972093151</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="13"/>
+        <v>8.1425592437279288</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>6.9334939726871525</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>0.97121833290085657</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="D38:G115">
+    <sortCondition ref="E38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
